--- a/FANGS/chart1.xlsx
+++ b/FANGS/chart1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="6120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Amazon</t>
   </si>
@@ -34,15 +35,56 @@
   <si>
     <t>Amazon with PE = 20</t>
   </si>
+  <si>
+    <t>Future Value at 7% real return</t>
+  </si>
+  <si>
+    <t>EPS required for 20 PE, current</t>
+  </si>
+  <si>
+    <t>EPS required for 20 PE, future</t>
+  </si>
+  <si>
+    <t>Current Sales</t>
+  </si>
+  <si>
+    <t>NPM required for future profits from 2% sales growth</t>
+  </si>
+  <si>
+    <t>Present Value of one share (roughly)</t>
+  </si>
+  <si>
+    <t>Future Sales with 2% growth</t>
+  </si>
+  <si>
+    <t>Shares outstanding current and future (for simplicity)</t>
+  </si>
+  <si>
+    <t>Current Net Profit Margin</t>
+  </si>
+  <si>
+    <t>Profit required for 20 PE current</t>
+  </si>
+  <si>
+    <t>Profit required for 20 PE future</t>
+  </si>
+  <si>
+    <t>Sales required for 20 PE future at 2% NPM</t>
+  </si>
+  <si>
+    <t>Sales required for 20 PE current at 2% NPM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +94,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -75,18 +133,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -162,6 +229,11 @@
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-5F06-48B0-87B7-B0A64E9E3076}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="&quot;$&quot;#,##0.0&quot;B&quot;;\-#,##0.0&quot;B&quot;" sourceLinked="0"/>
@@ -2044,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2136,4 +2208,165 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <f>1000*((1.07)^10)</f>
+        <v>1967.1513572895656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>135987000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f>A13*(1.02)^10</f>
+        <v>165767394191.82703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>A4/20</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <f>A7/20</f>
+        <v>98.357567864478284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>497000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <f>A19*A25</f>
+        <v>24850000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <f>A22*A25</f>
+        <v>48883711228.645706</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <f>A28/0.02</f>
+        <v>1242500000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <f>A31/0.02</f>
+        <v>2444185561432.2852</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <f>A31/A16</f>
+        <v>0.29489340450195639</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FANGS/chart1.xlsx
+++ b/FANGS/chart1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Working\Python\FANGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="6120" activeTab="1"/>
+    <workbookView xWindow="1110" yWindow="0" windowWidth="16560" windowHeight="6120" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Old" sheetId="1" r:id="rId1"/>
+    <sheet name="Calculations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Amazon</t>
   </si>
@@ -73,18 +73,66 @@
   </si>
   <si>
     <t>Sales required for 20 PE current at 2% NPM</t>
+  </si>
+  <si>
+    <t>Amazon in 2027</t>
+  </si>
+  <si>
+    <t>AWS Operating Income Current</t>
+  </si>
+  <si>
+    <t>AWS Net Sales Current</t>
+  </si>
+  <si>
+    <t>AWS Share of Operating Income</t>
+  </si>
+  <si>
+    <t>AWS vs Consumer Business</t>
+  </si>
+  <si>
+    <t>Non-AWS Sales required for P/E of 20</t>
+  </si>
+  <si>
+    <t>Profit from non-AWS required</t>
+  </si>
+  <si>
+    <t>AWS Share of Net Sales</t>
+  </si>
+  <si>
+    <t>Scenario 2: AWS constant</t>
+  </si>
+  <si>
+    <t>Scenario 1: AWS keeps growth pace</t>
+  </si>
+  <si>
+    <t>AWS Net Income Roughly</t>
+  </si>
+  <si>
+    <t>AWS Profit Margin Roughly</t>
+  </si>
+  <si>
+    <t>values in dollars, current is 2016 annual</t>
+  </si>
+  <si>
+    <t>Non-AWS Profit Margin Required to Achieve if 2% Sales Growth</t>
+  </si>
+  <si>
+    <t>Current Non-AWS Profit Margin Roughly</t>
+  </si>
+  <si>
+    <t>Non-AWS Profit Margin future</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +163,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,17 +203,23 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -169,7 +240,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -204,7 +275,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$11</c:f>
+              <c:f>Old!$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -229,7 +300,7 @@
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-5F06-48B0-87B7-B0A64E9E3076}"/>
               </c:ext>
@@ -270,8 +341,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -292,7 +364,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$11:$G$12</c:f>
+              <c:f>Old!$G$11:$G$12</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -306,7 +378,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$11:$I$11</c:f>
+              <c:f>Old!$H$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -319,7 +391,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1C24-4644-B59F-869B97C9C0B2}"/>
             </c:ext>
@@ -330,7 +402,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$12</c:f>
+              <c:f>Old!$G$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -354,7 +426,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$11:$G$12</c:f>
+              <c:f>Old!$G$11:$G$12</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -368,7 +440,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$12</c:f>
+              <c:f>Old!$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -378,7 +450,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1C24-4644-B59F-869B97C9C0B2}"/>
             </c:ext>
@@ -394,11 +466,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="412303616"/>
-        <c:axId val="412304928"/>
+        <c:axId val="388680744"/>
+        <c:axId val="388679960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="412303616"/>
+        <c:axId val="388680744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -441,7 +513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412304928"/>
+        <c:crossAx val="388679960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -449,7 +521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="412304928"/>
+        <c:axId val="388679960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,7 +540,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="412303616"/>
+        <c:crossAx val="388680744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1078,7 +1150,7 @@
         <xdr:cNvPr id="5" name="Group 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B9E57F-EDD0-4018-A30F-7F0FE18772AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98B9E57F-EDD0-4018-A30F-7F0FE18772AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1086,8 +1158,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7520940" y="727710"/>
-          <a:ext cx="4198620" cy="4050030"/>
+          <a:off x="7458075" y="750570"/>
+          <a:ext cx="4198620" cy="4225290"/>
           <a:chOff x="7520940" y="727710"/>
           <a:chExt cx="4198620" cy="4050030"/>
         </a:xfrm>
@@ -1097,7 +1169,7 @@
           <xdr:cNvPr id="3" name="Chart 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995A0CB6-688F-42DC-97E5-B4CE02B31F10}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{995A0CB6-688F-42DC-97E5-B4CE02B31F10}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1118,7 +1190,7 @@
           <xdr:cNvPr id="4" name="TextBox 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C305B4-5D8F-49CA-9609-62F9C2E089B8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5C305B4-5D8F-49CA-9609-62F9C2E089B8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1283,7 +1355,7 @@
         <cdr:cNvPr id="3" name="TextBox 2">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2A82F7-195A-4A83-A038-6CE2F0798662}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE2A82F7-195A-4A83-A038-6CE2F0798662}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1395,7 +1467,7 @@
         <cdr:cNvPr id="4" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF915974-59BE-4DA5-8092-D00C80EA96B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF915974-59BE-4DA5-8092-D00C80EA96B9}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1571,7 +1643,7 @@
         <cdr:cNvPr id="6" name="TextBox 5">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59DCCC21-B849-40B3-B84F-925FC56A929B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59DCCC21-B849-40B3-B84F-925FC56A929B}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1638,7 +1710,7 @@
         <cdr:cNvPr id="10" name="Right Brace 9">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04AB3F01-C478-4223-80AA-289D6FCDD030}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04AB3F01-C478-4223-80AA-289D6FCDD030}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1697,7 +1769,7 @@
         <cdr:cNvPr id="11" name="TextBox 10">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{918147A1-43C5-44FE-B049-53B36FE6DF60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{918147A1-43C5-44FE-B049-53B36FE6DF60}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -2120,19 +2192,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>1000.56/886.54</f>
         <v>1.1286123581564282</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>50*490000000</f>
         <v>24500000000</v>
@@ -2142,23 +2214,23 @@
         <v>1225000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>485.9</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D7">
         <f>D6/D5</f>
         <v>2.469643959662482</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>0</v>
       </c>
@@ -2166,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2249,7 @@
         <v>485.6</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>1</v>
       </c>
@@ -2190,7 +2262,7 @@
         <v>6.6852367688022288E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>2</v>
       </c>
@@ -2198,7 +2270,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="21" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W21">
         <f>24.5/0.02</f>
         <v>1225</v>
@@ -2212,154 +2284,278 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C4" s="3">
+        <v>12219000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>1000*((1.07)^10)</f>
         <v>1967.1513572895656</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <v>3108000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <f>C7*(725/1005)</f>
+        <v>2242089552.2388062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C12" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>135987000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C13" s="7">
+        <f>C10/C4</f>
+        <v>0.18349206581870908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C15" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>A13*(1.02)^10</f>
         <v>165767394191.82703</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C16" s="7">
+        <f>(4186-3108)*(725/1005)/(135987-12219)</f>
+        <v>6.283220958101356E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C18" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>A4/20</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C19" s="7">
+        <f>C4/135987000000</f>
+        <v>8.9854177237530058E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="11">
+        <f>1-C19</f>
+        <v>0.91014582276246991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f>A7/20</f>
         <v>98.357567864478284</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7">
+        <f>C7/4186000000</f>
+        <v>0.74247491638795982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="11">
+        <f>1-C22</f>
+        <v>0.25752508361204018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>497000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C25" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="12">
+        <f>A37*C20</f>
+        <v>2224565278793.9365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C27" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>A19*A25</f>
         <v>24850000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C28" s="12">
+        <f>A31*C23</f>
+        <v>12588781821.423813</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C30" s="7">
+        <f>C28/C26</f>
+        <v>5.6589851246122607E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>A22*A25</f>
         <v>48883711228.645706</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C31" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C33" s="12">
+        <f>A37-C4</f>
+        <v>2431966561432.2852</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f>A28/0.02</f>
         <v>1242500000000</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C34" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="12">
+        <f>A31-C10</f>
+        <v>46641621676.406898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C36" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <f>A31/0.02</f>
         <v>2444185561432.2852</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C37" s="7">
+        <f>(C35)/(A16-C4)</f>
+        <v>0.30375844646175731</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <f>A31/A16</f>
         <v>0.29489340450195639</v>
